--- a/FaceBook (Test Case).xlsx
+++ b/FaceBook (Test Case).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Requirement Reference</t>
   </si>
@@ -74,7 +74,58 @@
     <t>To test login functionality of facebook.com with valid credentials</t>
   </si>
   <si>
+    <t xml:space="preserve">Enter valid credentials into the input fields provided for logging in </t>
+  </si>
+  <si>
     <t>The user must be able to access the user account and dashboard</t>
+  </si>
+  <si>
+    <t>User must be provided with one of the two credentials associated with the account in question</t>
+  </si>
+  <si>
+    <t>To test if the "forgot password" link works correctly for users who can't remember their credentials</t>
+  </si>
+  <si>
+    <t>Click on the "forgot password" link</t>
+  </si>
+  <si>
+    <t>User should be navigated to the "forgot password page"</t>
+  </si>
+  <si>
+    <t>enter the valid credential you can remember (either phone number or email)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter texts into the provided field </t>
+  </si>
+  <si>
+    <t>Click on submit</t>
+  </si>
+  <si>
+    <t>User should be sent a temporary passcode via either email or sms which should successfully help the user access their account</t>
+  </si>
+  <si>
+    <t>To test if the user can search for friends in facebook’s ‘Find friends’ search functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid credentials into the input fields provided and login </t>
+  </si>
+  <si>
+    <t>Click on the search box in the top left corner of the page and type in a friends' name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit the serach button </t>
+  </si>
+  <si>
+    <t>The desired profile or related profiles should be displayed for the user to see</t>
+  </si>
+  <si>
+    <t>To test if users can send a friend requests to any user by visiting their page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the desired profile and hit the "add friend" button on their profile page </t>
+  </si>
+  <si>
+    <t>The user should be taken to the profile page of the person they want to befriend and should receive a "request sent" feedback when they add them as a friend</t>
   </si>
 </sst>
 </file>
@@ -82,9 +133,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -96,6 +147,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -103,8 +176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,37 +186,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +208,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -164,77 +246,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,133 +306,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,49 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,16 +501,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +530,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -494,11 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,21 +574,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,139 +620,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.3716814159292" customWidth="1"/>
     <col min="2" max="2" width="17.2035398230088" customWidth="1"/>
@@ -1082,9 +1139,7 @@
       </c>
     </row>
     <row r="2" ht="71.25" spans="1:13">
-      <c r="A2" s="2">
-        <v>1.1</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -1148,7 +1203,7 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1163,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>14</v>
@@ -1180,9 +1235,218 @@
         <v>15</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="99.75" spans="2:13">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="42.75" spans="8:13">
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="57" spans="8:13">
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="85.5" spans="8:13">
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="99.75" spans="2:13">
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="8:13">
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="57" spans="8:13">
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="8:13">
+      <c r="H15" s="5">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="99.75" spans="2:13">
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="42.75" spans="8:13">
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="57" spans="8:13">
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="57" spans="8:13">
+      <c r="H19" s="5">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="99.75" spans="8:13">
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/FaceBook (Test Case).xlsx
+++ b/FaceBook (Test Case).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>Requirement Reference</t>
   </si>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>The user should be taken to the profile page of the person they want to befriend and should receive a "request sent" feedback when they add them as a friend</t>
+  </si>
+  <si>
+    <t>To test if users can accept friend requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the "friends" menu button </t>
+  </si>
+  <si>
+    <t>The user must be provided with a list of available friend requests and people they might know.</t>
+  </si>
+  <si>
+    <t>Look Through the available friend requests and click the "confirm" button on the favourable ones</t>
+  </si>
+  <si>
+    <t>The "Request accepted" feedback must be displayed on the friends' request and the users' friends list must also be updated to reflect this</t>
+  </si>
+  <si>
+    <t>To test if users can decline friend requests</t>
+  </si>
+  <si>
+    <t>Look Through the available friend requests and click the "reject" button on the favourable ones</t>
+  </si>
+  <si>
+    <t>The "Request deleted" feedback must be displayed on the friends' request and the users' friends list must not be altered to include rejected individuals</t>
   </si>
 </sst>
 </file>
@@ -133,9 +157,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -147,6 +171,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -155,73 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -230,39 +294,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,22 +314,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,19 +330,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,163 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,16 +525,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +563,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,28 +601,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,130 +644,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,10 +785,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1088,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
@@ -1242,211 +1266,348 @@
       </c>
     </row>
     <row r="8" ht="99.75" spans="2:13">
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="8:13">
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="57" spans="8:13">
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="8:13">
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="99.75" spans="2:13">
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="8:13">
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="57" spans="8:13">
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="57" spans="8:13">
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="99.75" spans="2:13">
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="42.75" spans="8:13">
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="57" spans="8:13">
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="57" spans="8:13">
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>4</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" ht="99.75" spans="8:13">
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>5</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="99.75" spans="2:13">
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="42.75" spans="8:13">
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="71.25" spans="8:13">
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="85.5" spans="8:13">
+      <c r="H24" s="4">
+        <v>4</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="99.75" spans="2:13">
+      <c r="B25" s="5">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="42.75" spans="8:13">
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="71.25" spans="8:13">
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="99.75" spans="8:13">
+      <c r="H28" s="4">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/FaceBook (Test Case).xlsx
+++ b/FaceBook (Test Case).xlsx
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,13 +168,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +179,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -195,33 +301,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,88 +314,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -330,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,21 +521,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,26 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -601,8 +566,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,20 +610,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,130 +644,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
@@ -1475,140 +1475,148 @@
       </c>
     </row>
     <row r="21" ht="99.75" spans="2:13">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="42.75" spans="8:13">
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="71.25" spans="8:13">
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>3</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" ht="85.5" spans="8:13">
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>4</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="99.75" spans="2:13">
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>7</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="8:13">
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="8:13">
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" ht="99.75" spans="8:13">
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>4</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>12</v>
+      <c r="M28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/FaceBook (Test Case).xlsx
+++ b/FaceBook (Test Case).xlsx
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,6 +168,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,15 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,9 +216,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +240,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -241,6 +264,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -257,63 +302,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -330,37 +330,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,145 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,48 +535,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +571,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -621,12 +603,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,134 +644,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,9 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1112,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
@@ -1227,7 +1224,7 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1612,11 +1609,26 @@
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>8</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/FaceBook (Test Case).xlsx
+++ b/FaceBook (Test Case).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>Requirement Reference</t>
   </si>
@@ -158,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -171,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -187,7 +180,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,13 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,6 +216,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -226,90 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,21 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -595,17 +580,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -621,12 +595,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,130 +644,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,10 +785,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
@@ -1224,7 +1224,7 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1608,26 +1608,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" ht="57" spans="2:9">
       <c r="B29" s="3">
         <v>8</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="4">
+      <c r="I29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="42.75" spans="8:9">
+      <c r="H30" s="2">
         <v>2</v>
       </c>
+      <c r="I30" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="8:8">
-      <c r="H31" s="4">
+      <c r="H31" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="8:8">
-      <c r="H32" s="4">
+      <c r="H32" s="2">
         <v>4</v>
       </c>
     </row>
